--- a/registration-server/src/main/java/com/stackroute/registrationserver/seedData/charityseed.xlsx
+++ b/registration-server/src/main/java/com/stackroute/registrationserver/seedData/charityseed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="143">
   <si>
     <t xml:space="preserve">Charity Name</t>
   </si>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">12.941200,77.618828</t>
   </si>
   <si>
-    <t xml:space="preserve">Charity</t>
+    <t xml:space="preserve">charity</t>
   </si>
   <si>
     <t xml:space="preserve">Amrit Sagar Charitable Trust</t>
@@ -171,9 +171,6 @@
     <t xml:space="preserve">carrot@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">8041172812l</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carrots</t>
   </si>
   <si>
@@ -183,7 +180,7 @@
     <t xml:space="preserve">Carrots Restaurant, SLV Towers, 607, First Floor, 80 Feet Rd, 6th Block, Koramangala, Bengaluru, Karnataka 560095</t>
   </si>
   <si>
-    <t xml:space="preserve">Restaurant</t>
+    <t xml:space="preserve">restaurant</t>
   </si>
   <si>
     <t xml:space="preserve">The Black Pearl</t>
@@ -195,9 +192,6 @@
     <t xml:space="preserve">blackpearl@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">9035805000L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Black Pearl</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t xml:space="preserve">chianti@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">8041132021L</t>
-  </si>
-  <si>
     <t xml:space="preserve">12.972438,77.640197</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t xml:space="preserve">misu@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">8025351055L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Misu</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
     <t xml:space="preserve">empire@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">7026610012L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Empire</t>
   </si>
   <si>
@@ -276,9 +261,6 @@
     <t xml:space="preserve">sector7@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">9663357967L</t>
-  </si>
-  <si>
     <t xml:space="preserve">12.912220,77.633682</t>
   </si>
   <si>
@@ -294,9 +276,6 @@
     <t xml:space="preserve">kothiyans@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">8548853980L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kothiyans</t>
   </si>
   <si>
@@ -315,9 +294,6 @@
     <t xml:space="preserve">mayur@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">8025533336L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mayur</t>
   </si>
   <si>
@@ -336,9 +312,6 @@
     <t xml:space="preserve">parisar@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">8049589900L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parisar</t>
   </si>
   <si>
@@ -360,9 +333,6 @@
     <t xml:space="preserve">Bbqdelight@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">8049585777L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Barbeque Delight</t>
   </si>
   <si>
@@ -381,9 +351,6 @@
     <t xml:space="preserve">shanmukha@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">8951074705L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shanmukha</t>
   </si>
   <si>
@@ -402,9 +369,6 @@
     <t xml:space="preserve">refills@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">8884440797L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refills Eatery</t>
   </si>
   <si>
@@ -423,9 +387,6 @@
     <t xml:space="preserve">muthasi@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">8042274488L</t>
-  </si>
-  <si>
     <t xml:space="preserve">Muthasi</t>
   </si>
   <si>
@@ -453,7 +414,7 @@
     <t xml:space="preserve">raj@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Delivery Boy</t>
+    <t xml:space="preserve">deliveryBoy</t>
   </si>
   <si>
     <t xml:space="preserve">Sidharth</t>
@@ -499,7 +460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -533,6 +494,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -583,7 +549,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -596,15 +562,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -627,8 +597,8 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -745,11 +715,11 @@
       <c r="J3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -777,10 +747,10 @@
       <c r="I4" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -815,7 +785,7 @@
       <c r="J5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -850,7 +820,7 @@
       <c r="J6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -879,8 +849,8 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -929,7 +899,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -941,407 +911,407 @@
       <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>49</v>
+      <c r="E2" s="0" t="n">
+        <v>8041172812</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>92451</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>57</v>
+      <c r="E3" s="0" t="n">
+        <v>9035805000</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>87173</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="B4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>64</v>
+      <c r="E4" s="1" t="n">
+        <v>8041132021</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>73421</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="C5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>70</v>
+      <c r="E5" s="1" t="n">
+        <v>8025351055</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>95113</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>7026610012</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>75112</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>9663357967</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>63224</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>53</v>
+        <v>80</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8548853980</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>37265</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>8025533336</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>53921</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>53</v>
+        <v>92</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>101</v>
+      <c r="A10" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>8049589900</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>28564</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>53</v>
+        <v>97</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>108</v>
+      <c r="A11" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>112</v>
+        <v>102</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>8049585777</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>92365</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>53</v>
+        <v>104</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>116</v>
+      <c r="A12" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>119</v>
+        <v>108</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>8951074705</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>32675</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>53</v>
+        <v>110</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>123</v>
+      <c r="A13" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>8884440797</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>29745</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>53</v>
+        <v>116</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>130</v>
+      <c r="A14" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>133</v>
+        <v>120</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>8042274488</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>78544</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>53</v>
+        <v>122</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1379,8 +1349,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1396,7 +1366,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>42</v>
@@ -1411,10 +1381,10 @@
         <v>43</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>10</v>
@@ -1422,132 +1392,132 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>9860110332</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>8201500747</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>9400505588</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>2012001084</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>143</v>
+      <c r="H3" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>9400545751</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>9100192015</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>143</v>
+      <c r="H4" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>8301854719</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>4530872017</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>143</v>
+      <c r="H5" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>8075628295</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>9875327694</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>143</v>
+      <c r="H6" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
